--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Adam12</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam12</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H2">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I2">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J2">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>1297.570881896924</v>
+        <v>1541.713117994574</v>
       </c>
       <c r="R2">
-        <v>11678.13793707232</v>
+        <v>13875.41806195117</v>
       </c>
       <c r="S2">
-        <v>0.02009802199461342</v>
+        <v>0.02585099103532437</v>
       </c>
       <c r="T2">
-        <v>0.02009802199461342</v>
+        <v>0.02585099103532437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H3">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I3">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J3">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>1367.687776036689</v>
+        <v>1668.106539922286</v>
       </c>
       <c r="R3">
-        <v>12309.1899843302</v>
+        <v>15012.95885930057</v>
       </c>
       <c r="S3">
-        <v>0.02118405968263155</v>
+        <v>0.0279703186709531</v>
       </c>
       <c r="T3">
-        <v>0.02118405968263155</v>
+        <v>0.0279703186709531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H4">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I4">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J4">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>883.648166751647</v>
+        <v>719.0988590517263</v>
       </c>
       <c r="R4">
-        <v>7952.833500764823</v>
+        <v>6471.889731465538</v>
       </c>
       <c r="S4">
-        <v>0.01368679009266271</v>
+        <v>0.0120576376641582</v>
       </c>
       <c r="T4">
-        <v>0.01368679009266271</v>
+        <v>0.01205763766415821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H5">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I5">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J5">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>473.45080051511</v>
+        <v>564.6885079004335</v>
       </c>
       <c r="R5">
-        <v>4261.057204635989</v>
+        <v>5082.196571103902</v>
       </c>
       <c r="S5">
-        <v>0.007333259966661225</v>
+        <v>0.009468530419247671</v>
       </c>
       <c r="T5">
-        <v>0.007333259966661226</v>
+        <v>0.009468530419247672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H6">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I6">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J6">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>689.223489621113</v>
+        <v>674.2300209327412</v>
       </c>
       <c r="R6">
-        <v>6203.011406590017</v>
+        <v>6068.070188394672</v>
       </c>
       <c r="S6">
-        <v>0.01067535426917026</v>
+        <v>0.01130529021479092</v>
       </c>
       <c r="T6">
-        <v>0.01067535426917026</v>
+        <v>0.01130529021479092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>294.289253</v>
       </c>
       <c r="I7">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J7">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>16059.55929029788</v>
+        <v>15644.77349884986</v>
       </c>
       <c r="R7">
-        <v>144536.0336126809</v>
+        <v>140802.9614896488</v>
       </c>
       <c r="S7">
-        <v>0.2487458529959867</v>
+        <v>0.2623269496432158</v>
       </c>
       <c r="T7">
-        <v>0.2487458529959867</v>
+        <v>0.2623269496432159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>294.289253</v>
       </c>
       <c r="I8">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J8">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>16927.37039364425</v>
@@ -948,10 +948,10 @@
         <v>152346.3335427982</v>
       </c>
       <c r="S8">
-        <v>0.2621873434652608</v>
+        <v>0.2838331562404547</v>
       </c>
       <c r="T8">
-        <v>0.2621873434652608</v>
+        <v>0.2838331562404547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>294.289253</v>
       </c>
       <c r="I9">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J9">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>10936.58953333264</v>
+        <v>7297.167444342401</v>
       </c>
       <c r="R9">
-        <v>98429.30579999374</v>
+        <v>65674.50699908161</v>
       </c>
       <c r="S9">
-        <v>0.1693963852407402</v>
+        <v>0.1223567523589172</v>
       </c>
       <c r="T9">
-        <v>0.1693963852407402</v>
+        <v>0.1223567523589172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>294.289253</v>
       </c>
       <c r="I10">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J10">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>5859.727054599086</v>
+        <v>5730.264405479921</v>
       </c>
       <c r="R10">
-        <v>52737.54349139177</v>
+        <v>51572.37964931929</v>
       </c>
       <c r="S10">
-        <v>0.09076107122070813</v>
+        <v>0.09608338415696159</v>
       </c>
       <c r="T10">
-        <v>0.09076107122070813</v>
+        <v>0.09608338415696162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>294.289253</v>
       </c>
       <c r="I11">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J11">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>8530.266554421289</v>
+        <v>6841.853935405551</v>
       </c>
       <c r="R11">
-        <v>76772.39898979159</v>
+        <v>61576.68541864995</v>
       </c>
       <c r="S11">
-        <v>0.1321249476406587</v>
+        <v>0.1147221896764</v>
       </c>
       <c r="T11">
-        <v>0.1321249476406587</v>
+        <v>0.1147221896764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H12">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I12">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J12">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>0.8769505347688887</v>
+        <v>9.296726509859557</v>
       </c>
       <c r="R12">
-        <v>7.892554812919998</v>
+        <v>83.67053858873601</v>
       </c>
       <c r="S12">
-        <v>1.358305074648956E-05</v>
+        <v>0.0001558847692603518</v>
       </c>
       <c r="T12">
-        <v>1.358305074648956E-05</v>
+        <v>0.0001558847692603518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H13">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I13">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J13">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>0.9243383489299998</v>
+        <v>10.058894946122</v>
       </c>
       <c r="R13">
-        <v>8.319045140369997</v>
+        <v>90.530054515098</v>
       </c>
       <c r="S13">
-        <v>1.431703865002077E-05</v>
+        <v>0.0001686645848974248</v>
       </c>
       <c r="T13">
-        <v>1.431703865002077E-05</v>
+        <v>0.0001686645848974248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H14">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I14">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J14">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>0.5972049336122222</v>
+        <v>4.33625773052511</v>
       </c>
       <c r="R14">
-        <v>5.374844402509999</v>
+        <v>39.026319574726</v>
       </c>
       <c r="S14">
-        <v>9.250082641715407E-06</v>
+        <v>7.270909121177699E-05</v>
       </c>
       <c r="T14">
-        <v>9.250082641715409E-06</v>
+        <v>7.270909121177702E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H15">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I15">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J15">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>0.3199770729222222</v>
+        <v>3.405143641794889</v>
       </c>
       <c r="R15">
-        <v>2.879793656299999</v>
+        <v>30.646292776154</v>
       </c>
       <c r="S15">
-        <v>4.956111715424345E-06</v>
+        <v>5.709644468261002E-05</v>
       </c>
       <c r="T15">
-        <v>4.956111715424345E-06</v>
+        <v>5.709644468261004E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H16">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I16">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J16">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>0.4658049253655555</v>
+        <v>4.065692920549334</v>
       </c>
       <c r="R16">
-        <v>4.192244328289999</v>
+        <v>36.591236284944</v>
       </c>
       <c r="S16">
-        <v>7.214833321097811E-06</v>
+        <v>6.817234024590587E-05</v>
       </c>
       <c r="T16">
-        <v>7.214833321097811E-06</v>
+        <v>6.81723402459059E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H17">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I17">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J17">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>421.5539965803911</v>
+        <v>596.0674364727112</v>
       </c>
       <c r="R17">
-        <v>3793.98596922352</v>
+        <v>5364.6069282544</v>
       </c>
       <c r="S17">
-        <v>0.006529432506071697</v>
+        <v>0.009994683042425186</v>
       </c>
       <c r="T17">
-        <v>0.006529432506071696</v>
+        <v>0.009994683042425189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H18">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I18">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J18">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>444.33352821508</v>
+        <v>644.9345065625499</v>
       </c>
       <c r="R18">
-        <v>3999.00175393572</v>
+        <v>5804.41055906295</v>
       </c>
       <c r="S18">
-        <v>0.006882263734182854</v>
+        <v>0.01081407166672269</v>
       </c>
       <c r="T18">
-        <v>0.006882263734182854</v>
+        <v>0.01081407166672269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H19">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I19">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J19">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>287.0790501406178</v>
+        <v>278.0228101340722</v>
       </c>
       <c r="R19">
-        <v>2583.71145126556</v>
+        <v>2502.20529120665</v>
       </c>
       <c r="S19">
-        <v>0.004446555594314885</v>
+        <v>0.004661804513760959</v>
       </c>
       <c r="T19">
-        <v>0.004446555594314886</v>
+        <v>0.00466180451376096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H20">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I20">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J20">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>153.8143926669778</v>
+        <v>218.3236474939278</v>
       </c>
       <c r="R20">
-        <v>1384.3295340028</v>
+        <v>1964.91282744535</v>
       </c>
       <c r="S20">
-        <v>0.002382424798551079</v>
+        <v>0.003660786555092869</v>
       </c>
       <c r="T20">
-        <v>0.002382424798551079</v>
+        <v>0.003660786555092871</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H21">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I21">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J21">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>223.9144856288044</v>
+        <v>260.6753198630667</v>
       </c>
       <c r="R21">
-        <v>2015.23037065924</v>
+        <v>2346.0778787676</v>
       </c>
       <c r="S21">
-        <v>0.00346820225381549</v>
+        <v>0.004370926911276475</v>
       </c>
       <c r="T21">
-        <v>0.00346820225381549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.015872</v>
-      </c>
-      <c r="I22">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J22">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>163.7119853333333</v>
-      </c>
-      <c r="N22">
-        <v>491.135956</v>
-      </c>
-      <c r="O22">
-        <v>0.2754003062401034</v>
-      </c>
-      <c r="P22">
-        <v>0.2754003062401033</v>
-      </c>
-      <c r="Q22">
-        <v>0.8661455437368889</v>
-      </c>
-      <c r="R22">
-        <v>7.795309893632</v>
-      </c>
-      <c r="S22">
-        <v>1.341569268502068E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.341569268502068E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.015872</v>
-      </c>
-      <c r="I23">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J23">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>172.558497</v>
-      </c>
-      <c r="N23">
-        <v>517.675491</v>
-      </c>
-      <c r="O23">
-        <v>0.290282124557779</v>
-      </c>
-      <c r="P23">
-        <v>0.290282124557779</v>
-      </c>
-      <c r="Q23">
-        <v>0.9129494881279999</v>
-      </c>
-      <c r="R23">
-        <v>8.216545393152</v>
-      </c>
-      <c r="S23">
-        <v>1.414063705371062E-05</v>
-      </c>
-      <c r="T23">
-        <v>1.414063705371062E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.015872</v>
-      </c>
-      <c r="I24">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J24">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>111.4881643333333</v>
-      </c>
-      <c r="N24">
-        <v>334.464493</v>
-      </c>
-      <c r="O24">
-        <v>0.1875481171218523</v>
-      </c>
-      <c r="P24">
-        <v>0.1875481171218523</v>
-      </c>
-      <c r="Q24">
-        <v>0.5898467147662222</v>
-      </c>
-      <c r="R24">
-        <v>5.308620432896</v>
-      </c>
-      <c r="S24">
-        <v>9.136111492800683E-06</v>
-      </c>
-      <c r="T24">
-        <v>9.136111492800684E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.015872</v>
-      </c>
-      <c r="I25">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J25">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>59.73436333333333</v>
-      </c>
-      <c r="N25">
-        <v>179.20309</v>
-      </c>
-      <c r="O25">
-        <v>0.100486607144627</v>
-      </c>
-      <c r="P25">
-        <v>0.100486607144627</v>
-      </c>
-      <c r="Q25">
-        <v>0.3160346049422222</v>
-      </c>
-      <c r="R25">
-        <v>2.84431144448</v>
-      </c>
-      <c r="S25">
-        <v>4.895046991114823E-06</v>
-      </c>
-      <c r="T25">
-        <v>4.895046991114824E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.015872</v>
-      </c>
-      <c r="I26">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J26">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>86.95798233333333</v>
-      </c>
-      <c r="N26">
-        <v>260.873947</v>
-      </c>
-      <c r="O26">
-        <v>0.1462828449356384</v>
-      </c>
-      <c r="P26">
-        <v>0.1462828449356383</v>
-      </c>
-      <c r="Q26">
-        <v>0.4600656985315555</v>
-      </c>
-      <c r="R26">
-        <v>4.140591286784</v>
-      </c>
-      <c r="S26">
-        <v>7.125938672835376E-06</v>
-      </c>
-      <c r="T26">
-        <v>7.125938672835376E-06</v>
+        <v>0.004370926911276477</v>
       </c>
     </row>
   </sheetData>
